--- a/biology/Médecine/Liste_d'enzymes/Liste_d'enzymes.xlsx
+++ b/biology/Médecine/Liste_d'enzymes/Liste_d'enzymes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est une liste d'enzymes, triées par sous-catégories.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Catégorie:Hydrolases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hydrolase
 Enzyme hydrolytique
@@ -600,7 +614,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +632,9 @@
           <t>Catégorie:Isomérases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isomère
 Isomérase
@@ -642,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -660,7 +676,9 @@
           <t>Catégorie:Ligases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liaison covalente
 ADN ligase
@@ -674,7 +692,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -692,7 +710,9 @@
           <t>Catégorie:Lyases</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lyase
 Catégorie:EC 4.1
@@ -730,7 +750,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -748,7 +768,9 @@
           <t>Catégorie:Oxydoréductases</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Déshydrogénase
 Luciférase
@@ -832,7 +854,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27enzymes</t>
+          <t>Liste_d'enzymes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,7 +872,9 @@
           <t>Catégorie:Transférases</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Glutathion S-transférase
 Transférase
